--- a/Velocity.xlsx
+++ b/Velocity.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.24</v>
+        <v>1.26</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.24</v>
+        <v>1.19</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0412747859954834</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.3</v>
+        <v>1.15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1198129653930664</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.3</v>
+        <v>1.09</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1620497703552246</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4.39</v>
+        <v>1.09</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2390294075012207</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -498,10 +498,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4.39</v>
+        <v>1.07</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2813801765441895</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -509,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>4.43</v>
+        <v>1.09</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3591554164886475</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
@@ -520,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>4.39</v>
+        <v>1.11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4367225170135498</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10">
@@ -531,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>4.39</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4778029918670654</v>
+        <v>0.7999999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4.39</v>
+        <v>0.85</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5548305511474609</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -553,10 +553,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>4.39</v>
+        <v>0.63</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6065471172332764</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -564,10 +564,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>4.44</v>
+        <v>0.43</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6844754219055176</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="14">
@@ -575,10 +575,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>4.44</v>
+        <v>0.35</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7267987728118896</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15">
@@ -586,10 +586,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4.44</v>
+        <v>0.35</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8051600456237793</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="16">
@@ -597,10 +597,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>4.48</v>
+        <v>0.39</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8823919296264648</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="17">
@@ -608,10 +608,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>4.52</v>
+        <v>0.39</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9583132266998291</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18">
@@ -619,10 +619,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>4.52</v>
+        <v>0.33</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999954700469971</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19">
@@ -630,10 +630,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>4.56</v>
+        <v>0.33</v>
       </c>
       <c r="C19" t="n">
-        <v>1.078667402267456</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="20">
@@ -641,10 +641,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>4.59</v>
+        <v>0.3</v>
       </c>
       <c r="C20" t="n">
-        <v>1.155239820480347</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="21">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>4.59</v>
+        <v>0.35</v>
       </c>
       <c r="C21" t="n">
-        <v>1.187625885009766</v>
+        <v>1.900000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>4.69</v>
+        <v>0.43</v>
       </c>
       <c r="C22" t="n">
-        <v>1.266234636306763</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -674,10 +674,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>4.69</v>
+        <v>0.41</v>
       </c>
       <c r="C23" t="n">
-        <v>1.307384967803955</v>
+        <v>2.100000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -685,10 +685,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>4.7</v>
+        <v>0.39</v>
       </c>
       <c r="C24" t="n">
-        <v>1.385844945907593</v>
+        <v>2.200000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -696,10 +696,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>4.76</v>
+        <v>0.3</v>
       </c>
       <c r="C25" t="n">
-        <v>1.461867094039917</v>
+        <v>2.300000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -707,10 +707,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>4.76</v>
+        <v>0.3</v>
       </c>
       <c r="C26" t="n">
-        <v>1.504807710647583</v>
+        <v>2.400000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -718,10 +718,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>4.76</v>
+        <v>0.31</v>
       </c>
       <c r="C27" t="n">
-        <v>1.582058429718018</v>
+        <v>2.500000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -729,10 +729,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>4.76</v>
+        <v>0.31</v>
       </c>
       <c r="C28" t="n">
-        <v>1.634202480316162</v>
+        <v>2.600000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -740,10 +740,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>4.74</v>
+        <v>0.3</v>
       </c>
       <c r="C29" t="n">
-        <v>1.711593151092529</v>
+        <v>2.700000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -751,10 +751,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>4.63</v>
+        <v>0.31</v>
       </c>
       <c r="C30" t="n">
-        <v>1.788385152816772</v>
+        <v>2.800000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -762,10 +762,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>4.63</v>
+        <v>0.44</v>
       </c>
       <c r="C31" t="n">
-        <v>1.830312013626099</v>
+        <v>2.900000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -773,10 +773,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>4.59</v>
+        <v>0.54</v>
       </c>
       <c r="C32" t="n">
-        <v>1.90816593170166</v>
+        <v>3.000000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -784,10 +784,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>4.59</v>
+        <v>0.57</v>
       </c>
       <c r="C33" t="n">
-        <v>1.95031213760376</v>
+        <v>3.100000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -795,10 +795,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>4.59</v>
+        <v>0.61</v>
       </c>
       <c r="C34" t="n">
-        <v>2.028123140335083</v>
+        <v>3.200000000000002</v>
       </c>
     </row>
     <row r="35">
@@ -806,10 +806,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>4.43</v>
+        <v>0.65</v>
       </c>
       <c r="C35" t="n">
-        <v>2.104486465454102</v>
+        <v>3.300000000000002</v>
       </c>
     </row>
     <row r="36">
@@ -817,10 +817,6082 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>4.41</v>
+        <v>0.65</v>
       </c>
       <c r="C36" t="n">
-        <v>2.181714773178101</v>
+        <v>3.400000000000002</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.500000000000002</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.600000000000002</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.700000000000002</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.800000000000002</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.900000000000002</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.000000000000002</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.100000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.200000000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.300000000000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.699999999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.799999999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.899999999999999</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.999999999999998</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.099999999999998</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5.199999999999998</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5.299999999999997</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5.399999999999997</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5.499999999999996</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5.599999999999996</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C59" t="n">
+        <v>5.699999999999996</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5.799999999999995</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5.899999999999995</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5.999999999999995</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6.099999999999994</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6.199999999999994</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6.299999999999994</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C66" t="n">
+        <v>6.399999999999993</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6.499999999999993</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6.599999999999993</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6.699999999999992</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6.799999999999992</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6.899999999999991</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6.999999999999991</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7.099999999999991</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C74" t="n">
+        <v>7.19999999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7.29999999999999</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7.39999999999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7.499999999999989</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7.599999999999989</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7.699999999999989</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C80" t="n">
+        <v>7.799999999999988</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C81" t="n">
+        <v>7.899999999999988</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C82" t="n">
+        <v>7.999999999999988</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C83" t="n">
+        <v>8.099999999999987</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C84" t="n">
+        <v>8.199999999999987</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C85" t="n">
+        <v>8.299999999999986</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C86" t="n">
+        <v>8.399999999999986</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C87" t="n">
+        <v>8.499999999999986</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C88" t="n">
+        <v>8.599999999999985</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C89" t="n">
+        <v>8.699999999999985</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C90" t="n">
+        <v>8.799999999999985</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C91" t="n">
+        <v>8.899999999999984</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>8.999999999999984</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C93" t="n">
+        <v>9.099999999999984</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C94" t="n">
+        <v>9.199999999999983</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C95" t="n">
+        <v>9.299999999999983</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C96" t="n">
+        <v>9.399999999999983</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C97" t="n">
+        <v>9.499999999999982</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C98" t="n">
+        <v>9.599999999999982</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C99" t="n">
+        <v>9.699999999999982</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9.799999999999981</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C101" t="n">
+        <v>9.899999999999981</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C102" t="n">
+        <v>9.99999999999998</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C103" t="n">
+        <v>10.09999999999998</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C104" t="n">
+        <v>10.19999999999998</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C105" t="n">
+        <v>10.29999999999998</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C106" t="n">
+        <v>10.39999999999998</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C107" t="n">
+        <v>10.49999999999998</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C108" t="n">
+        <v>10.59999999999998</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="C109" t="n">
+        <v>10.69999999999998</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C110" t="n">
+        <v>10.79999999999998</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C111" t="n">
+        <v>10.89999999999998</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C112" t="n">
+        <v>10.99999999999998</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="C113" t="n">
+        <v>11.09999999999998</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>11.19999999999998</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C115" t="n">
+        <v>11.29999999999998</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>11.39999999999998</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C117" t="n">
+        <v>11.49999999999998</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C118" t="n">
+        <v>11.59999999999997</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C119" t="n">
+        <v>11.69999999999997</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="C120" t="n">
+        <v>11.79999999999997</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C121" t="n">
+        <v>11.89999999999997</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C122" t="n">
+        <v>11.99999999999997</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.09999999999997</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C124" t="n">
+        <v>12.19999999999997</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12.29999999999997</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12.39999999999997</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12.49999999999997</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C128" t="n">
+        <v>12.59999999999997</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12.69999999999997</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.79999999999997</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12.89999999999997</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.99999999999997</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C133" t="n">
+        <v>13.09999999999997</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>13.19999999999997</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C135" t="n">
+        <v>13.29999999999997</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C136" t="n">
+        <v>13.39999999999997</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C137" t="n">
+        <v>13.49999999999997</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C138" t="n">
+        <v>13.59999999999997</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C139" t="n">
+        <v>13.69999999999997</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C140" t="n">
+        <v>13.79999999999997</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C141" t="n">
+        <v>13.89999999999997</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C142" t="n">
+        <v>13.99999999999997</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C143" t="n">
+        <v>14.09999999999997</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C144" t="n">
+        <v>14.19999999999997</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C145" t="n">
+        <v>14.29999999999997</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C146" t="n">
+        <v>14.39999999999996</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C147" t="n">
+        <v>14.49999999999996</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C148" t="n">
+        <v>14.59999999999996</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C149" t="n">
+        <v>14.69999999999996</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>14.79999999999996</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>14.89999999999996</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C152" t="n">
+        <v>14.99999999999996</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15.09999999999996</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15.19999999999996</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15.29999999999996</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C156" t="n">
+        <v>15.39999999999996</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15.49999999999996</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C158" t="n">
+        <v>15.59999999999996</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C159" t="n">
+        <v>15.69999999999996</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15.79999999999996</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C161" t="n">
+        <v>15.89999999999996</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C162" t="n">
+        <v>15.99999999999996</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C163" t="n">
+        <v>16.09999999999996</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C164" t="n">
+        <v>16.19999999999996</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C165" t="n">
+        <v>16.29999999999996</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C166" t="n">
+        <v>16.39999999999996</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C167" t="n">
+        <v>16.49999999999996</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C168" t="n">
+        <v>16.59999999999997</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C169" t="n">
+        <v>16.69999999999997</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C170" t="n">
+        <v>16.79999999999997</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C171" t="n">
+        <v>16.89999999999997</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C172" t="n">
+        <v>16.99999999999997</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C173" t="n">
+        <v>17.09999999999997</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C174" t="n">
+        <v>17.19999999999997</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C175" t="n">
+        <v>17.29999999999998</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>17.39999999999998</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C177" t="n">
+        <v>17.49999999999998</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C178" t="n">
+        <v>17.59999999999998</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C179" t="n">
+        <v>17.69999999999998</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="C180" t="n">
+        <v>17.79999999999998</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C181" t="n">
+        <v>17.89999999999998</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C182" t="n">
+        <v>17.99999999999999</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C183" t="n">
+        <v>18.09999999999999</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C184" t="n">
+        <v>18.19999999999999</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C185" t="n">
+        <v>18.29999999999999</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C186" t="n">
+        <v>18.39999999999999</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C187" t="n">
+        <v>18.49999999999999</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C188" t="n">
+        <v>18.59999999999999</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C189" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C190" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C191" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C192" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C193" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C194" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C195" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C196" t="n">
+        <v>19.40000000000001</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C197" t="n">
+        <v>19.50000000000001</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C198" t="n">
+        <v>19.60000000000001</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C199" t="n">
+        <v>19.70000000000001</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C200" t="n">
+        <v>19.80000000000001</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="C201" t="n">
+        <v>19.90000000000001</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C202" t="n">
+        <v>20.00000000000001</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C203" t="n">
+        <v>20.10000000000002</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>20.20000000000002</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C205" t="n">
+        <v>20.30000000000002</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="C206" t="n">
+        <v>20.40000000000002</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C207" t="n">
+        <v>20.50000000000002</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="C208" t="n">
+        <v>20.60000000000002</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="C209" t="n">
+        <v>20.70000000000002</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="C210" t="n">
+        <v>20.80000000000003</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="C211" t="n">
+        <v>20.90000000000003</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C212" t="n">
+        <v>21.00000000000003</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C213" t="n">
+        <v>21.10000000000003</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C214" t="n">
+        <v>21.20000000000003</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C215" t="n">
+        <v>21.30000000000003</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="C216" t="n">
+        <v>21.40000000000003</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C217" t="n">
+        <v>21.50000000000004</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C218" t="n">
+        <v>21.60000000000004</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="C219" t="n">
+        <v>21.70000000000004</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C220" t="n">
+        <v>21.80000000000004</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C221" t="n">
+        <v>21.90000000000004</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="C222" t="n">
+        <v>22.00000000000004</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C223" t="n">
+        <v>22.10000000000004</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C224" t="n">
+        <v>22.20000000000005</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C225" t="n">
+        <v>22.30000000000005</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C226" t="n">
+        <v>22.40000000000005</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C227" t="n">
+        <v>22.50000000000005</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C228" t="n">
+        <v>22.60000000000005</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C229" t="n">
+        <v>22.70000000000005</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C230" t="n">
+        <v>22.80000000000005</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="C231" t="n">
+        <v>22.90000000000006</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="C232" t="n">
+        <v>23.00000000000006</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C233" t="n">
+        <v>23.10000000000006</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="C234" t="n">
+        <v>23.20000000000006</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C235" t="n">
+        <v>23.30000000000006</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C236" t="n">
+        <v>23.40000000000006</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C237" t="n">
+        <v>23.50000000000006</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C238" t="n">
+        <v>23.60000000000007</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C239" t="n">
+        <v>23.70000000000007</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C240" t="n">
+        <v>23.80000000000007</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C241" t="n">
+        <v>23.90000000000007</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C242" t="n">
+        <v>24.00000000000007</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C243" t="n">
+        <v>24.10000000000007</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C244" t="n">
+        <v>24.20000000000007</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C245" t="n">
+        <v>24.30000000000008</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="C246" t="n">
+        <v>24.40000000000008</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="C247" t="n">
+        <v>24.50000000000008</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C248" t="n">
+        <v>24.60000000000008</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C249" t="n">
+        <v>24.70000000000008</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="C250" t="n">
+        <v>24.80000000000008</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C251" t="n">
+        <v>24.90000000000008</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="C252" t="n">
+        <v>25.00000000000009</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="C253" t="n">
+        <v>25.10000000000009</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C254" t="n">
+        <v>25.20000000000009</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C255" t="n">
+        <v>25.30000000000009</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C256" t="n">
+        <v>25.40000000000009</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C257" t="n">
+        <v>25.50000000000009</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C258" t="n">
+        <v>25.60000000000009</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C259" t="n">
+        <v>25.7000000000001</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="C260" t="n">
+        <v>25.8000000000001</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="C261" t="n">
+        <v>25.9000000000001</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C262" t="n">
+        <v>26.0000000000001</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C263" t="n">
+        <v>26.1000000000001</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C264" t="n">
+        <v>26.2000000000001</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C265" t="n">
+        <v>26.3000000000001</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="C266" t="n">
+        <v>26.40000000000011</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C267" t="n">
+        <v>26.50000000000011</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C268" t="n">
+        <v>26.60000000000011</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C269" t="n">
+        <v>26.70000000000011</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C270" t="n">
+        <v>26.80000000000011</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C271" t="n">
+        <v>26.90000000000011</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C272" t="n">
+        <v>27.00000000000011</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C273" t="n">
+        <v>27.10000000000012</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C274" t="n">
+        <v>27.20000000000012</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C275" t="n">
+        <v>27.30000000000012</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C276" t="n">
+        <v>27.40000000000012</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C277" t="n">
+        <v>27.50000000000012</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C278" t="n">
+        <v>27.60000000000012</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C279" t="n">
+        <v>27.70000000000012</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C280" t="n">
+        <v>27.80000000000013</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C281" t="n">
+        <v>27.90000000000013</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C282" t="n">
+        <v>28.00000000000013</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C283" t="n">
+        <v>28.10000000000013</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C284" t="n">
+        <v>28.20000000000013</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C285" t="n">
+        <v>28.30000000000013</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C286" t="n">
+        <v>28.40000000000013</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C287" t="n">
+        <v>28.50000000000014</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C288" t="n">
+        <v>28.60000000000014</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C289" t="n">
+        <v>28.70000000000014</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C290" t="n">
+        <v>28.80000000000014</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C291" t="n">
+        <v>28.90000000000014</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C292" t="n">
+        <v>29.00000000000014</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C293" t="n">
+        <v>29.10000000000014</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C294" t="n">
+        <v>29.20000000000014</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C295" t="n">
+        <v>29.30000000000015</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C296" t="n">
+        <v>29.40000000000015</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C297" t="n">
+        <v>29.50000000000015</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C298" t="n">
+        <v>29.60000000000015</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C299" t="n">
+        <v>29.70000000000015</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C300" t="n">
+        <v>29.80000000000015</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C301" t="n">
+        <v>29.90000000000015</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C302" t="n">
+        <v>30.00000000000016</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C303" t="n">
+        <v>30.10000000000016</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C304" t="n">
+        <v>30.20000000000016</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C305" t="n">
+        <v>30.30000000000016</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C306" t="n">
+        <v>30.40000000000016</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C307" t="n">
+        <v>30.50000000000016</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C308" t="n">
+        <v>30.60000000000016</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C309" t="n">
+        <v>30.70000000000017</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C310" t="n">
+        <v>30.80000000000017</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C311" t="n">
+        <v>30.90000000000017</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C312" t="n">
+        <v>31.00000000000017</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C313" t="n">
+        <v>31.10000000000017</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C314" t="n">
+        <v>31.20000000000017</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C315" t="n">
+        <v>31.30000000000017</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C316" t="n">
+        <v>31.40000000000018</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C317" t="n">
+        <v>31.50000000000018</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C318" t="n">
+        <v>31.60000000000018</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="C319" t="n">
+        <v>31.70000000000018</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C320" t="n">
+        <v>31.80000000000018</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C321" t="n">
+        <v>31.90000000000018</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C322" t="n">
+        <v>32.00000000000018</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="C323" t="n">
+        <v>32.10000000000019</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="C324" t="n">
+        <v>32.20000000000019</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C325" t="n">
+        <v>32.30000000000019</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="C326" t="n">
+        <v>32.40000000000019</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C327" t="n">
+        <v>32.50000000000019</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C328" t="n">
+        <v>32.60000000000019</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C329" t="n">
+        <v>32.70000000000019</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C330" t="n">
+        <v>32.8000000000002</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="C331" t="n">
+        <v>32.9000000000002</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="C332" t="n">
+        <v>33.0000000000002</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="C333" t="n">
+        <v>33.1000000000002</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>3</v>
+      </c>
+      <c r="C334" t="n">
+        <v>33.2000000000002</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C335" t="n">
+        <v>33.3000000000002</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C336" t="n">
+        <v>33.4000000000002</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="C337" t="n">
+        <v>33.50000000000021</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="C338" t="n">
+        <v>33.60000000000021</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C339" t="n">
+        <v>33.70000000000021</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C340" t="n">
+        <v>33.80000000000021</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C341" t="n">
+        <v>33.90000000000021</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C342" t="n">
+        <v>34.00000000000021</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="C343" t="n">
+        <v>34.10000000000021</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="C344" t="n">
+        <v>34.20000000000022</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C345" t="n">
+        <v>34.30000000000022</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C346" t="n">
+        <v>34.40000000000022</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="C347" t="n">
+        <v>34.50000000000022</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="C348" t="n">
+        <v>34.60000000000022</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="C349" t="n">
+        <v>34.70000000000022</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="C350" t="n">
+        <v>34.80000000000022</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="n">
+        <v>3</v>
+      </c>
+      <c r="C351" t="n">
+        <v>34.90000000000023</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C352" t="n">
+        <v>35.00000000000023</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="C353" t="n">
+        <v>35.10000000000023</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C354" t="n">
+        <v>35.20000000000023</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="C355" t="n">
+        <v>35.30000000000023</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="C356" t="n">
+        <v>35.40000000000023</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C357" t="n">
+        <v>35.50000000000023</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="C358" t="n">
+        <v>35.60000000000024</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="C359" t="n">
+        <v>35.70000000000024</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="C360" t="n">
+        <v>35.80000000000024</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C361" t="n">
+        <v>35.90000000000024</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C362" t="n">
+        <v>36.00000000000024</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="C363" t="n">
+        <v>36.10000000000024</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="C364" t="n">
+        <v>36.20000000000024</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="C365" t="n">
+        <v>36.30000000000025</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="C366" t="n">
+        <v>36.40000000000025</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="C367" t="n">
+        <v>36.50000000000025</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="C368" t="n">
+        <v>36.60000000000025</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="C369" t="n">
+        <v>36.70000000000025</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="C370" t="n">
+        <v>36.80000000000025</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="C371" t="n">
+        <v>36.90000000000025</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="C372" t="n">
+        <v>37.00000000000026</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="C373" t="n">
+        <v>37.10000000000026</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="C374" t="n">
+        <v>37.20000000000026</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="C375" t="n">
+        <v>37.30000000000026</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="C376" t="n">
+        <v>37.40000000000026</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="C377" t="n">
+        <v>37.50000000000026</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="C378" t="n">
+        <v>37.60000000000026</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="C379" t="n">
+        <v>37.70000000000027</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="C380" t="n">
+        <v>37.80000000000027</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="C381" t="n">
+        <v>37.90000000000027</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="C382" t="n">
+        <v>38.00000000000027</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="C383" t="n">
+        <v>38.10000000000027</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="C384" t="n">
+        <v>38.20000000000027</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="C385" t="n">
+        <v>38.30000000000027</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="C386" t="n">
+        <v>38.40000000000028</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="C387" t="n">
+        <v>38.50000000000028</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C388" t="n">
+        <v>38.60000000000028</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="C389" t="n">
+        <v>38.70000000000028</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="C390" t="n">
+        <v>38.80000000000028</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="C391" t="n">
+        <v>38.90000000000028</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="C392" t="n">
+        <v>39.00000000000028</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C393" t="n">
+        <v>39.10000000000029</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="C394" t="n">
+        <v>39.20000000000029</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C395" t="n">
+        <v>39.30000000000029</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="C396" t="n">
+        <v>39.40000000000029</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C397" t="n">
+        <v>39.50000000000029</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C398" t="n">
+        <v>39.60000000000029</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="C399" t="n">
+        <v>39.70000000000029</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C400" t="n">
+        <v>39.8000000000003</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="C401" t="n">
+        <v>39.9000000000003</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C402" t="n">
+        <v>40.0000000000003</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="C403" t="n">
+        <v>40.1000000000003</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="C404" t="n">
+        <v>40.2000000000003</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>404</v>
+      </c>
+      <c r="B405" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="C405" t="n">
+        <v>40.3000000000003</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>405</v>
+      </c>
+      <c r="B406" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C406" t="n">
+        <v>40.4000000000003</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>406</v>
+      </c>
+      <c r="B407" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="C407" t="n">
+        <v>40.50000000000031</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>407</v>
+      </c>
+      <c r="B408" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C408" t="n">
+        <v>40.60000000000031</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>408</v>
+      </c>
+      <c r="B409" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="C409" t="n">
+        <v>40.70000000000031</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>409</v>
+      </c>
+      <c r="B410" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C410" t="n">
+        <v>40.80000000000031</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>410</v>
+      </c>
+      <c r="B411" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="C411" t="n">
+        <v>40.90000000000031</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>411</v>
+      </c>
+      <c r="B412" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C412" t="n">
+        <v>41.00000000000031</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>412</v>
+      </c>
+      <c r="B413" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C413" t="n">
+        <v>41.10000000000031</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>413</v>
+      </c>
+      <c r="B414" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C414" t="n">
+        <v>41.20000000000032</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>414</v>
+      </c>
+      <c r="B415" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="C415" t="n">
+        <v>41.30000000000032</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>415</v>
+      </c>
+      <c r="B416" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="C416" t="n">
+        <v>41.40000000000032</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="C417" t="n">
+        <v>41.50000000000032</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>417</v>
+      </c>
+      <c r="B418" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C418" t="n">
+        <v>41.60000000000032</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>418</v>
+      </c>
+      <c r="B419" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="C419" t="n">
+        <v>41.70000000000032</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>419</v>
+      </c>
+      <c r="B420" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="C420" t="n">
+        <v>41.80000000000032</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>420</v>
+      </c>
+      <c r="B421" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C421" t="n">
+        <v>41.90000000000033</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>421</v>
+      </c>
+      <c r="B422" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C422" t="n">
+        <v>42.00000000000033</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>422</v>
+      </c>
+      <c r="B423" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C423" t="n">
+        <v>42.10000000000033</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>423</v>
+      </c>
+      <c r="B424" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C424" t="n">
+        <v>42.20000000000033</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>424</v>
+      </c>
+      <c r="B425" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C425" t="n">
+        <v>42.30000000000033</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>425</v>
+      </c>
+      <c r="B426" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C426" t="n">
+        <v>42.40000000000033</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>426</v>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+      <c r="C427" t="n">
+        <v>42.50000000000033</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>427</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C428" t="n">
+        <v>42.60000000000034</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>428</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C429" t="n">
+        <v>42.70000000000034</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>429</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C430" t="n">
+        <v>42.80000000000034</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>430</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C431" t="n">
+        <v>42.90000000000034</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>431</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C432" t="n">
+        <v>43.00000000000034</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>432</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C433" t="n">
+        <v>43.10000000000034</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>433</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C434" t="n">
+        <v>43.20000000000034</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>434</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C435" t="n">
+        <v>43.30000000000035</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>435</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C436" t="n">
+        <v>43.40000000000035</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>436</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C437" t="n">
+        <v>43.50000000000035</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>437</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C438" t="n">
+        <v>43.60000000000035</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>438</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C439" t="n">
+        <v>43.70000000000035</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>439</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C440" t="n">
+        <v>43.80000000000035</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>440</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C441" t="n">
+        <v>43.90000000000035</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>441</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C442" t="n">
+        <v>44.00000000000036</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>442</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C443" t="n">
+        <v>44.10000000000036</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>443</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C444" t="n">
+        <v>44.20000000000036</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>444</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C445" t="n">
+        <v>44.30000000000036</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>445</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C446" t="n">
+        <v>44.40000000000036</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>446</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C447" t="n">
+        <v>44.50000000000036</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>447</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C448" t="n">
+        <v>44.60000000000036</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>448</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C449" t="n">
+        <v>44.70000000000037</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>449</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C450" t="n">
+        <v>44.80000000000037</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>450</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C451" t="n">
+        <v>44.90000000000037</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>451</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C452" t="n">
+        <v>45.00000000000037</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>452</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C453" t="n">
+        <v>45.10000000000037</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>453</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C454" t="n">
+        <v>45.20000000000037</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>454</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C455" t="n">
+        <v>45.30000000000037</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>455</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C456" t="n">
+        <v>45.40000000000038</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>456</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C457" t="n">
+        <v>45.50000000000038</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>457</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C458" t="n">
+        <v>45.60000000000038</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>458</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C459" t="n">
+        <v>45.70000000000038</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>459</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C460" t="n">
+        <v>45.80000000000038</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>460</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C461" t="n">
+        <v>45.90000000000038</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>461</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C462" t="n">
+        <v>46.00000000000038</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>462</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C463" t="n">
+        <v>46.10000000000039</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>463</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C464" t="n">
+        <v>46.20000000000039</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>464</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C465" t="n">
+        <v>46.30000000000039</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>465</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C466" t="n">
+        <v>46.40000000000039</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>466</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C467" t="n">
+        <v>46.50000000000039</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>467</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C468" t="n">
+        <v>46.60000000000039</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>468</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C469" t="n">
+        <v>46.70000000000039</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>469</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C470" t="n">
+        <v>46.8000000000004</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>470</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C471" t="n">
+        <v>46.9000000000004</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>471</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C472" t="n">
+        <v>47.0000000000004</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>472</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C473" t="n">
+        <v>47.1000000000004</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>473</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C474" t="n">
+        <v>47.2000000000004</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>474</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C475" t="n">
+        <v>47.3000000000004</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>475</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C476" t="n">
+        <v>47.4000000000004</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>476</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C477" t="n">
+        <v>47.50000000000041</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>477</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C478" t="n">
+        <v>47.60000000000041</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>478</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C479" t="n">
+        <v>47.70000000000041</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>479</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C480" t="n">
+        <v>47.80000000000041</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>480</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C481" t="n">
+        <v>47.90000000000041</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>481</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C482" t="n">
+        <v>48.00000000000041</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>482</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C483" t="n">
+        <v>48.10000000000041</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>483</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C484" t="n">
+        <v>48.20000000000041</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>484</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C485" t="n">
+        <v>48.30000000000042</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>485</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C486" t="n">
+        <v>48.40000000000042</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>486</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C487" t="n">
+        <v>48.50000000000042</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>487</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C488" t="n">
+        <v>48.60000000000042</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>488</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C489" t="n">
+        <v>48.70000000000042</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>489</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C490" t="n">
+        <v>48.80000000000042</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>490</v>
+      </c>
+      <c r="B491" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C491" t="n">
+        <v>48.90000000000042</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>491</v>
+      </c>
+      <c r="B492" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C492" t="n">
+        <v>49.00000000000043</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>492</v>
+      </c>
+      <c r="B493" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C493" t="n">
+        <v>49.10000000000043</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>493</v>
+      </c>
+      <c r="B494" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C494" t="n">
+        <v>49.20000000000043</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>494</v>
+      </c>
+      <c r="B495" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C495" t="n">
+        <v>49.30000000000043</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>495</v>
+      </c>
+      <c r="B496" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C496" t="n">
+        <v>49.40000000000043</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>496</v>
+      </c>
+      <c r="B497" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C497" t="n">
+        <v>49.50000000000043</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>497</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C498" t="n">
+        <v>49.60000000000043</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>498</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C499" t="n">
+        <v>49.70000000000044</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>499</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C500" t="n">
+        <v>49.80000000000044</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>500</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C501" t="n">
+        <v>49.90000000000044</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>501</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C502" t="n">
+        <v>50.00000000000044</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>502</v>
+      </c>
+      <c r="B503" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C503" t="n">
+        <v>50.10000000000044</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>503</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C504" t="n">
+        <v>50.20000000000044</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>504</v>
+      </c>
+      <c r="B505" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C505" t="n">
+        <v>50.30000000000044</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>505</v>
+      </c>
+      <c r="B506" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C506" t="n">
+        <v>50.40000000000045</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>506</v>
+      </c>
+      <c r="B507" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C507" t="n">
+        <v>50.50000000000045</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>507</v>
+      </c>
+      <c r="B508" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C508" t="n">
+        <v>50.60000000000045</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>508</v>
+      </c>
+      <c r="B509" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C509" t="n">
+        <v>50.70000000000045</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>509</v>
+      </c>
+      <c r="B510" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C510" t="n">
+        <v>50.80000000000045</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>510</v>
+      </c>
+      <c r="B511" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C511" t="n">
+        <v>50.90000000000045</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>511</v>
+      </c>
+      <c r="B512" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C512" t="n">
+        <v>51.00000000000045</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>512</v>
+      </c>
+      <c r="B513" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C513" t="n">
+        <v>51.10000000000046</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>513</v>
+      </c>
+      <c r="B514" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C514" t="n">
+        <v>51.20000000000046</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>514</v>
+      </c>
+      <c r="B515" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C515" t="n">
+        <v>51.30000000000046</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>515</v>
+      </c>
+      <c r="B516" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C516" t="n">
+        <v>51.40000000000046</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>516</v>
+      </c>
+      <c r="B517" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C517" t="n">
+        <v>51.50000000000046</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>517</v>
+      </c>
+      <c r="B518" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C518" t="n">
+        <v>51.60000000000046</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>518</v>
+      </c>
+      <c r="B519" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C519" t="n">
+        <v>51.70000000000046</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>519</v>
+      </c>
+      <c r="B520" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C520" t="n">
+        <v>51.80000000000047</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>520</v>
+      </c>
+      <c r="B521" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C521" t="n">
+        <v>51.90000000000047</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>521</v>
+      </c>
+      <c r="B522" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C522" t="n">
+        <v>52.00000000000047</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>522</v>
+      </c>
+      <c r="B523" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C523" t="n">
+        <v>52.10000000000047</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>523</v>
+      </c>
+      <c r="B524" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C524" t="n">
+        <v>52.20000000000047</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>524</v>
+      </c>
+      <c r="B525" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C525" t="n">
+        <v>52.30000000000047</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>525</v>
+      </c>
+      <c r="B526" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C526" t="n">
+        <v>52.40000000000047</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>526</v>
+      </c>
+      <c r="B527" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C527" t="n">
+        <v>52.50000000000048</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>527</v>
+      </c>
+      <c r="B528" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C528" t="n">
+        <v>52.60000000000048</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>528</v>
+      </c>
+      <c r="B529" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C529" t="n">
+        <v>52.70000000000048</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>529</v>
+      </c>
+      <c r="B530" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C530" t="n">
+        <v>52.80000000000048</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>530</v>
+      </c>
+      <c r="B531" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C531" t="n">
+        <v>52.90000000000048</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>531</v>
+      </c>
+      <c r="B532" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C532" t="n">
+        <v>53.00000000000048</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>532</v>
+      </c>
+      <c r="B533" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C533" t="n">
+        <v>53.10000000000048</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>533</v>
+      </c>
+      <c r="B534" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C534" t="n">
+        <v>53.20000000000049</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>534</v>
+      </c>
+      <c r="B535" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C535" t="n">
+        <v>53.30000000000049</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>535</v>
+      </c>
+      <c r="B536" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C536" t="n">
+        <v>53.40000000000049</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>536</v>
+      </c>
+      <c r="B537" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C537" t="n">
+        <v>53.50000000000049</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>537</v>
+      </c>
+      <c r="B538" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C538" t="n">
+        <v>53.60000000000049</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>538</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C539" t="n">
+        <v>53.70000000000049</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>539</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C540" t="n">
+        <v>53.80000000000049</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>540</v>
+      </c>
+      <c r="B541" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C541" t="n">
+        <v>53.9000000000005</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>541</v>
+      </c>
+      <c r="B542" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C542" t="n">
+        <v>54.0000000000005</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>542</v>
+      </c>
+      <c r="B543" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C543" t="n">
+        <v>54.1000000000005</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>543</v>
+      </c>
+      <c r="B544" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C544" t="n">
+        <v>54.2000000000005</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>544</v>
+      </c>
+      <c r="B545" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C545" t="n">
+        <v>54.3000000000005</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>545</v>
+      </c>
+      <c r="B546" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C546" t="n">
+        <v>54.4000000000005</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>546</v>
+      </c>
+      <c r="B547" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C547" t="n">
+        <v>54.5000000000005</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>547</v>
+      </c>
+      <c r="B548" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C548" t="n">
+        <v>54.60000000000051</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>548</v>
+      </c>
+      <c r="B549" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C549" t="n">
+        <v>54.70000000000051</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>549</v>
+      </c>
+      <c r="B550" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C550" t="n">
+        <v>54.80000000000051</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>550</v>
+      </c>
+      <c r="B551" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C551" t="n">
+        <v>54.90000000000051</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>551</v>
+      </c>
+      <c r="B552" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C552" t="n">
+        <v>55.00000000000051</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>552</v>
+      </c>
+      <c r="B553" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C553" t="n">
+        <v>55.10000000000051</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>553</v>
+      </c>
+      <c r="B554" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C554" t="n">
+        <v>55.20000000000051</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>554</v>
+      </c>
+      <c r="B555" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C555" t="n">
+        <v>55.30000000000052</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>555</v>
+      </c>
+      <c r="B556" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C556" t="n">
+        <v>55.40000000000052</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>556</v>
+      </c>
+      <c r="B557" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C557" t="n">
+        <v>55.50000000000052</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>557</v>
+      </c>
+      <c r="B558" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C558" t="n">
+        <v>55.60000000000052</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>558</v>
+      </c>
+      <c r="B559" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C559" t="n">
+        <v>55.70000000000052</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>559</v>
+      </c>
+      <c r="B560" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C560" t="n">
+        <v>55.80000000000052</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>560</v>
+      </c>
+      <c r="B561" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C561" t="n">
+        <v>55.90000000000052</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>561</v>
+      </c>
+      <c r="B562" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C562" t="n">
+        <v>56.00000000000053</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>562</v>
+      </c>
+      <c r="B563" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C563" t="n">
+        <v>56.10000000000053</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>563</v>
+      </c>
+      <c r="B564" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C564" t="n">
+        <v>56.20000000000053</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>564</v>
+      </c>
+      <c r="B565" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C565" t="n">
+        <v>56.30000000000053</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>565</v>
+      </c>
+      <c r="B566" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C566" t="n">
+        <v>56.40000000000053</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>566</v>
+      </c>
+      <c r="B567" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C567" t="n">
+        <v>56.50000000000053</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>567</v>
+      </c>
+      <c r="B568" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C568" t="n">
+        <v>56.60000000000053</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>568</v>
+      </c>
+      <c r="B569" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C569" t="n">
+        <v>56.70000000000054</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>569</v>
+      </c>
+      <c r="B570" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C570" t="n">
+        <v>56.80000000000054</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>570</v>
+      </c>
+      <c r="B571" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C571" t="n">
+        <v>56.90000000000054</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>571</v>
+      </c>
+      <c r="B572" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C572" t="n">
+        <v>57.00000000000054</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>572</v>
+      </c>
+      <c r="B573" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C573" t="n">
+        <v>57.10000000000054</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>573</v>
+      </c>
+      <c r="B574" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C574" t="n">
+        <v>57.20000000000054</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>574</v>
+      </c>
+      <c r="B575" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C575" t="n">
+        <v>57.30000000000054</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>575</v>
+      </c>
+      <c r="B576" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C576" t="n">
+        <v>57.40000000000055</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>576</v>
+      </c>
+      <c r="B577" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C577" t="n">
+        <v>57.50000000000055</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>577</v>
+      </c>
+      <c r="B578" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C578" t="n">
+        <v>57.60000000000055</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>578</v>
+      </c>
+      <c r="B579" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C579" t="n">
+        <v>57.70000000000055</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>579</v>
+      </c>
+      <c r="B580" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C580" t="n">
+        <v>57.80000000000055</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>580</v>
+      </c>
+      <c r="B581" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C581" t="n">
+        <v>57.90000000000055</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>581</v>
+      </c>
+      <c r="B582" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C582" t="n">
+        <v>58.00000000000055</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>582</v>
+      </c>
+      <c r="B583" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C583" t="n">
+        <v>58.10000000000056</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>583</v>
+      </c>
+      <c r="B584" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C584" t="n">
+        <v>58.20000000000056</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>584</v>
+      </c>
+      <c r="B585" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C585" t="n">
+        <v>58.30000000000056</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>585</v>
+      </c>
+      <c r="B586" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C586" t="n">
+        <v>58.40000000000056</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>586</v>
+      </c>
+      <c r="B587" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C587" t="n">
+        <v>58.50000000000056</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>587</v>
+      </c>
+      <c r="B588" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C588" t="n">
+        <v>58.60000000000056</v>
       </c>
     </row>
   </sheetData>
